--- a/Product Backlog V1.xlsx
+++ b/Product Backlog V1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ferde\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5C2B0B1-B42B-4F85-865C-B11E26DDF9DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BEBAED0-3C50-4930-9975-C69F343C9BB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -18,7 +18,7 @@
     <sheet name="R-Sprints" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$B$1:$I$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'Historias de Usuario'!$B$1:$I$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">Instructivo!$A$1:$D$13</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="159">
   <si>
     <t>Columna</t>
   </si>
@@ -492,6 +492,39 @@
   </si>
   <si>
     <t>Identificar los requisitos específicos de persistencia de datos para la funcionalidad que se esta desarrollando en este sprint. Esto implica entender qué datos necesitan ser almacenados, recuperados, actualizados o eliminados.</t>
+  </si>
+  <si>
+    <t>HT-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diagrama de Procesos </t>
+  </si>
+  <si>
+    <t>Creacion del Diagrama de Procesos</t>
+  </si>
+  <si>
+    <t>sprint 12</t>
+  </si>
+  <si>
+    <t>El diagrama de procesos tiene como objetivo representar visualmente el flujo de trabajo y las interacciones entre los diferentes componentes o módulos de un sistema. Permiten comprender y comunicar de manera clara cómo se ejecutan las distintas actividades y procesos dentro de una aplicación.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SPRINT 4 ( Diagrama de Procesos) </t>
+  </si>
+  <si>
+    <t>Identificar los objetivos específicos del diagrama de procesos, como la desgloce de un proceso existente o la visualización de un flujo de trabajo.</t>
+  </si>
+  <si>
+    <t>Recopila información sobre el proceso que se va a representar. Identifica a las personas o roles clave involucrados en el proceso.</t>
+  </si>
+  <si>
+    <t>Realiza un bosquejo inicial del diagrama de procesos. Esboza las principales etapas, decisiones y flujos de información para tener una visión general del diseño.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La representación visual refleje con precisión el proceso y cumpla con sus expectativas. Realiza ajustes en el diseño del diagrama según los comentarios recibidos. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Finalizar la creación del diagrama y mostrar la versión final a la persona interesada (nutriologa) y al equipo  en general. </t>
   </si>
 </sst>
 </file>
@@ -565,7 +598,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="21">
+  <fills count="22">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -686,6 +719,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -714,7 +753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -813,10 +852,13 @@
     <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="17" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1123,10 +1165,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I25"/>
+  <dimension ref="B1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="75" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD10"/>
+    <sheetView topLeftCell="A5" zoomScale="75" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1312,39 +1354,39 @@
     </row>
     <row r="10" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
-        <v>57</v>
+        <v>148</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>73</v>
+        <v>150</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>86</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G10" s="17" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10" s="18" t="s">
         <v>90</v>
       </c>
       <c r="H10" s="7" t="s">
         <v>43</v>
       </c>
       <c r="I10" s="9" t="s">
-        <v>74</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>86</v>
@@ -1352,25 +1394,25 @@
       <c r="F11" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="G11" s="17" t="s">
         <v>91</v>
       </c>
       <c r="H11" s="7" t="s">
         <v>43</v>
       </c>
       <c r="I11" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="8" t="s">
-        <v>67</v>
-      </c>
-      <c r="C12" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="7" t="s">
-        <v>22</v>
+        <v>52</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>71</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>86</v>
@@ -1379,24 +1421,24 @@
         <v>84</v>
       </c>
       <c r="G12" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H12" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I12" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="I12" s="9" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" ht="73.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E13" s="7" t="s">
         <v>86</v>
@@ -1405,50 +1447,50 @@
         <v>84</v>
       </c>
       <c r="G13" s="16" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" ht="91.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>86</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G14" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="G14" s="16" t="s">
         <v>92</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
       <c r="D15" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>86</v>
@@ -1457,50 +1499,50 @@
         <v>85</v>
       </c>
       <c r="G15" s="20" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="H15" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9" ht="82.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>33</v>
+        <v>83</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>86</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G16" s="15" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" s="20" t="s">
         <v>93</v>
       </c>
       <c r="H16" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" ht="75.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>86</v>
@@ -1508,132 +1550,148 @@
       <c r="F17" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="21" t="s">
+      <c r="G17" s="15" t="s">
         <v>94</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" ht="109.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="C18" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>68</v>
+        <v>61</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="7" t="s">
+        <v>37</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>86</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G18" s="39" t="s">
+        <v>84</v>
+      </c>
+      <c r="G18" s="21" t="s">
         <v>95</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="9" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="I18" s="7" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="60" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>40</v>
+        <v>51</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>68</v>
       </c>
       <c r="E19" s="7" t="s">
         <v>86</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="G19" s="18" t="s">
+        <v>98</v>
+      </c>
+      <c r="G19" s="39" t="s">
         <v>96</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+        <v>43</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" ht="86.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C20" s="12" t="s">
-        <v>77</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>77</v>
+        <v>62</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>40</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>86</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G20" s="18" t="s">
         <v>97</v>
       </c>
       <c r="H20" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="9" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+        <v>24</v>
+      </c>
+      <c r="I20" s="7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" ht="39" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="8" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
+      </c>
+      <c r="D21" s="12" t="s">
+        <v>77</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>86</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="G21" s="19" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="H21" s="7" t="s">
         <v>43</v>
       </c>
       <c r="I21" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" ht="53.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>151</v>
+      </c>
+      <c r="H22" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="I22" s="9" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="10"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="10"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="10"/>
-    </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="11"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="10"/>
       <c r="E23" s="10"/>
@@ -1643,7 +1701,7 @@
       <c r="I23" s="10"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="10"/>
+      <c r="B24" s="11"/>
       <c r="C24" s="10"/>
       <c r="D24" s="10"/>
       <c r="E24" s="10"/>
@@ -1661,6 +1719,16 @@
       <c r="G25" s="10"/>
       <c r="H25" s="10"/>
       <c r="I25" s="10"/>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="10"/>
+      <c r="C26" s="10"/>
+      <c r="D26" s="10"/>
+      <c r="E26" s="10"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
@@ -1776,9 +1844,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC15734A-155F-48CB-B53D-F0BB6E0DBE89}">
-  <dimension ref="A2:J42"/>
+  <dimension ref="A2:J50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="82" workbookViewId="0">
+      <selection activeCell="I49" sqref="I49"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1910,7 +1980,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A7" s="24" t="s">
         <v>44</v>
       </c>
@@ -2227,7 +2297,7 @@
       <c r="I19" s="37"/>
       <c r="J19" s="37"/>
     </row>
-    <row r="20" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A20" s="24" t="s">
         <v>49</v>
       </c>
@@ -2343,7 +2413,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A24" s="24" t="s">
         <v>49</v>
       </c>
@@ -2407,18 +2477,18 @@
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="43" t="s">
         <v>141</v>
       </c>
-      <c r="B27" s="42"/>
-      <c r="C27" s="42"/>
-      <c r="D27" s="42"/>
-      <c r="E27" s="42"/>
-      <c r="F27" s="42"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+      <c r="I27" s="43"/>
+      <c r="J27" s="43"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A28" s="30" t="s">
@@ -2452,7 +2522,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A29" s="24" t="s">
         <v>50</v>
       </c>
@@ -2584,7 +2654,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="33" spans="1:10" ht="66" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" ht="52.8" x14ac:dyDescent="0.3">
       <c r="A33" s="24" t="s">
         <v>50</v>
       </c>
@@ -2635,18 +2705,18 @@
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="42" t="s">
         <v>140</v>
       </c>
-      <c r="B35" s="43"/>
-      <c r="C35" s="43"/>
-      <c r="D35" s="43"/>
-      <c r="E35" s="43"/>
-      <c r="F35" s="43"/>
-      <c r="G35" s="43"/>
-      <c r="H35" s="43"/>
-      <c r="I35" s="43"/>
-      <c r="J35" s="43"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A36" s="30" t="s">
@@ -2746,7 +2816,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="1:10" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
       <c r="A39" s="24" t="s">
         <v>51</v>
       </c>
@@ -2862,8 +2932,198 @@
         <v>160</v>
       </c>
     </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="44" t="s">
+        <v>153</v>
+      </c>
+      <c r="B43" s="44"/>
+      <c r="C43" s="44"/>
+      <c r="D43" s="44"/>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
+      <c r="G43" s="44"/>
+      <c r="H43" s="44"/>
+      <c r="I43" s="44"/>
+      <c r="J43" s="44"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="30" t="s">
+        <v>100</v>
+      </c>
+      <c r="B44" s="30" t="s">
+        <v>101</v>
+      </c>
+      <c r="C44" s="30" t="s">
+        <v>102</v>
+      </c>
+      <c r="D44" s="31" t="s">
+        <v>103</v>
+      </c>
+      <c r="E44" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F44" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="G44" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="H44" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="I44" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="J44" s="32" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A45" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B45" s="29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C45" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E45" s="22"/>
+      <c r="F45" s="22">
+        <v>1</v>
+      </c>
+      <c r="G45" s="22"/>
+      <c r="H45" s="22"/>
+      <c r="I45" s="22"/>
+      <c r="J45" s="22">
+        <f>SUM(E45:I45)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A46" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B46" s="29" t="s">
+        <v>155</v>
+      </c>
+      <c r="C46" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="E46" s="22">
+        <v>1</v>
+      </c>
+      <c r="F46" s="22"/>
+      <c r="G46" s="22"/>
+      <c r="H46" s="22"/>
+      <c r="I46" s="22"/>
+      <c r="J46" s="22">
+        <f t="shared" ref="J46:J47" si="4">SUM(E46:I46)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" ht="46.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B47" s="29" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="E47" s="22"/>
+      <c r="F47" s="22"/>
+      <c r="G47" s="22">
+        <v>1</v>
+      </c>
+      <c r="H47" s="22"/>
+      <c r="I47" s="22"/>
+      <c r="J47" s="22">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" ht="52.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B48" s="29" t="s">
+        <v>157</v>
+      </c>
+      <c r="C48" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D48" s="22" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="22"/>
+      <c r="F48" s="22"/>
+      <c r="G48" s="22"/>
+      <c r="H48" s="22">
+        <v>1</v>
+      </c>
+      <c r="I48" s="22"/>
+      <c r="J48" s="22">
+        <f>SUM(E48:I48)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" ht="39.6" x14ac:dyDescent="0.3">
+      <c r="A49" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B49" s="29" t="s">
+        <v>158</v>
+      </c>
+      <c r="C49" s="25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22">
+        <v>1</v>
+      </c>
+      <c r="J49" s="22">
+        <f t="shared" ref="J49" si="5">SUM(E49:I49)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A50" s="40" t="s">
+        <v>142</v>
+      </c>
+      <c r="B50" s="40"/>
+      <c r="C50" s="40"/>
+      <c r="D50" s="40"/>
+      <c r="E50" s="40"/>
+      <c r="F50" s="40"/>
+      <c r="G50" s="40"/>
+      <c r="H50" s="40"/>
+      <c r="I50" s="40"/>
+      <c r="J50" s="35">
+        <f>SUM(J45:J49)</f>
+        <v>5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="13">
+    <mergeCell ref="A43:J43"/>
+    <mergeCell ref="A50:I50"/>
     <mergeCell ref="A42:I42"/>
     <mergeCell ref="A2:J2"/>
     <mergeCell ref="A17:I17"/>
@@ -2877,11 +3137,11 @@
     <mergeCell ref="A26:I26"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C28 C19 C3 C36" xr:uid="{929D530A-A9D8-4A36-B321-577C73DFDE3C}">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C11 C28 C19 C3 C36 C44" xr:uid="{929D530A-A9D8-4A36-B321-577C73DFDE3C}">
       <formula1>$K$12:$K$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11 D3 D28 D19 D36" xr:uid="{D28816CB-B437-448A-BFD1-A14CE206D049}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D11 D3 D28 D19 D36 D44" xr:uid="{D28816CB-B437-448A-BFD1-A14CE206D049}">
       <formula1>$D$12:$D$16</formula1>
     </dataValidation>
   </dataValidations>
